--- a/biology/Zoologie/Archaraeoncus_prospiciens/Archaraeoncus_prospiciens.xlsx
+++ b/biology/Zoologie/Archaraeoncus_prospiciens/Archaraeoncus_prospiciens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archaraeoncus prospiciens est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaraeoncus prospiciens est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Bulgarie, en Ukraine, en Turquie, en Azerbaïdjan, en Iran, en Russie et en Chine au Xinjiang[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Bulgarie, en Ukraine, en Turquie, en Azerbaïdjan, en Iran, en Russie et en Chine au Xinjiang,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erigone prospiciens par Thorell en 1875. Elle est placée dans le genre Araeoncus par Simon en 1884[4] puis dans le genre Archaraeoncus par Tanasevitch en 1987[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Erigone prospiciens par Thorell en 1875. Elle est placée dans le genre Araeoncus par Simon en 1884 puis dans le genre Archaraeoncus par Tanasevitch en 1987.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1875 : « Verzeichniss südrussischer Spinnen. » Horae Societatis Entomologicae Rossicae, vol. 11, p. 39-122 (texte intégral).</t>
         </is>
